--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_15.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,587 +626,550 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1535714285714286</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'E:min/b7', 'C'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/5', 'G:min/b7', 'Eb'], ['Eb', 'F', 'Bb']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(107.586031, 111.022585), (6.126439, 9.980952)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(86.016643, 89.993773), (44.917324, 48.272607)]</t>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09411764705882353</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[('0:00:36.400000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.4, 44.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(94.4, 104.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
